--- a/notebooks/samples/m_a_2025_transpose.xlsx
+++ b/notebooks/samples/m_a_2025_transpose.xlsx
@@ -4227,9 +4227,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4252,12 +4264,24 @@
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4275,17 +4299,29 @@
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="W4" s="5" t="inlineStr"/>
-      <c r="X4" s="5" t="inlineStr"/>
-      <c r="Y4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="Z4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -4298,12 +4334,12 @@
       </c>
       <c r="AB4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD4" s="5" t="inlineStr">
@@ -4311,9 +4347,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AE4" s="5" t="inlineStr"/>
-      <c r="AF4" s="5" t="inlineStr"/>
-      <c r="AG4" s="6" t="inlineStr"/>
+      <c r="AE4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AF4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AG4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AH4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -4321,12 +4369,12 @@
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -4339,17 +4387,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AM4" s="5" t="inlineStr"/>
-      <c r="AN4" s="6" t="inlineStr"/>
-      <c r="AO4" s="6" t="inlineStr"/>
+      <c r="AM4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AN4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AO4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AP4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AQ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AR4" s="5" t="inlineStr">
@@ -4367,12 +4427,24 @@
           <t>M</t>
         </is>
       </c>
-      <c r="AU4" s="6" t="inlineStr"/>
-      <c r="AV4" s="6" t="inlineStr"/>
-      <c r="AW4" s="5" t="inlineStr"/>
+      <c r="AU4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AV4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AW4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AX4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AY4" s="5" t="inlineStr">
@@ -4395,9 +4467,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="BC4" s="6" t="inlineStr"/>
-      <c r="BD4" s="5" t="inlineStr"/>
-      <c r="BE4" s="5" t="inlineStr"/>
+      <c r="BC4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="BD4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="BF4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4423,9 +4507,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="BK4" s="5" t="inlineStr"/>
-      <c r="BL4" s="5" t="inlineStr"/>
-      <c r="BM4" s="5" t="inlineStr"/>
+      <c r="BK4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BL4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BM4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="BN4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4448,12 +4544,24 @@
       </c>
       <c r="BR4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="BS4" s="5" t="inlineStr"/>
-      <c r="BT4" s="5" t="inlineStr"/>
-      <c r="BU4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BT4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="BU4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="BV4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4471,17 +4579,29 @@
       </c>
       <c r="BY4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BZ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CA4" s="5" t="inlineStr"/>
-      <c r="CB4" s="5" t="inlineStr"/>
-      <c r="CC4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CA4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CB4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CC4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="CD4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -4494,12 +4614,12 @@
       </c>
       <c r="CF4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CG4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CH4" s="5" t="inlineStr">
@@ -4507,9 +4627,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="CI4" s="5" t="inlineStr"/>
-      <c r="CJ4" s="5" t="inlineStr"/>
-      <c r="CK4" s="6" t="inlineStr"/>
+      <c r="CI4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CJ4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CK4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="CL4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -4517,12 +4649,12 @@
       </c>
       <c r="CM4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CN4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CO4" s="5" t="inlineStr">
@@ -4535,17 +4667,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="CQ4" s="5" t="inlineStr"/>
-      <c r="CR4" s="6" t="inlineStr"/>
-      <c r="CS4" s="6" t="inlineStr"/>
+      <c r="CQ4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CR4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CS4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="CT4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CU4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CV4" s="5" t="inlineStr">
@@ -4563,12 +4707,24 @@
           <t>M</t>
         </is>
       </c>
-      <c r="CY4" s="6" t="inlineStr"/>
-      <c r="CZ4" s="6" t="inlineStr"/>
-      <c r="DA4" s="5" t="inlineStr"/>
+      <c r="CY4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CZ4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="DA4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="DB4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DC4" s="5" t="inlineStr">
@@ -4591,9 +4747,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="DG4" s="6" t="inlineStr"/>
-      <c r="DH4" s="5" t="inlineStr"/>
-      <c r="DI4" s="5" t="inlineStr"/>
+      <c r="DG4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="DH4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="DJ4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4619,9 +4787,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="DO4" s="5" t="inlineStr"/>
-      <c r="DP4" s="5" t="inlineStr"/>
-      <c r="DQ4" s="5" t="inlineStr"/>
+      <c r="DO4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="DR4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4644,12 +4824,24 @@
       </c>
       <c r="DV4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="DW4" s="5" t="inlineStr"/>
-      <c r="DX4" s="5" t="inlineStr"/>
-      <c r="DY4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="DY4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="DZ4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4667,17 +4859,29 @@
       </c>
       <c r="EC4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ED4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="EE4" s="5" t="inlineStr"/>
-      <c r="EF4" s="5" t="inlineStr"/>
-      <c r="EG4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EF4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EG4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="EH4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -4690,12 +4894,12 @@
       </c>
       <c r="EJ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EK4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EL4" s="5" t="inlineStr">
@@ -4703,9 +4907,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="EM4" s="5" t="inlineStr"/>
-      <c r="EN4" s="5" t="inlineStr"/>
-      <c r="EO4" s="6" t="inlineStr"/>
+      <c r="EM4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EN4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EO4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="EP4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -4713,12 +4929,12 @@
       </c>
       <c r="EQ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ER4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ES4" s="5" t="inlineStr">
@@ -4731,17 +4947,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="EU4" s="5" t="inlineStr"/>
-      <c r="EV4" s="6" t="inlineStr"/>
-      <c r="EW4" s="6" t="inlineStr"/>
+      <c r="EU4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EV4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EW4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="EX4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EY4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EZ4" s="5" t="inlineStr">
@@ -4759,12 +4987,24 @@
           <t>M</t>
         </is>
       </c>
-      <c r="FC4" s="6" t="inlineStr"/>
-      <c r="FD4" s="6" t="inlineStr"/>
-      <c r="FE4" s="5" t="inlineStr"/>
+      <c r="FC4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="FD4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="FE4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="FF4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FG4" s="5" t="inlineStr">
@@ -4787,9 +5027,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="FK4" s="6" t="inlineStr"/>
-      <c r="FL4" s="5" t="inlineStr"/>
-      <c r="FM4" s="5" t="inlineStr"/>
+      <c r="FK4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="FL4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="FN4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4815,9 +5067,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="FS4" s="5" t="inlineStr"/>
-      <c r="FT4" s="5" t="inlineStr"/>
-      <c r="FU4" s="5" t="inlineStr"/>
+      <c r="FS4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FT4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FU4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="FV4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4840,12 +5104,24 @@
       </c>
       <c r="FZ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="GA4" s="5" t="inlineStr"/>
-      <c r="GB4" s="5" t="inlineStr"/>
-      <c r="GC4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GA4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GB4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GC4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="GD4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -4863,17 +5139,29 @@
       </c>
       <c r="GG4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GH4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="GI4" s="5" t="inlineStr"/>
-      <c r="GJ4" s="5" t="inlineStr"/>
-      <c r="GK4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GI4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GJ4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GK4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="GL4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -4886,12 +5174,12 @@
       </c>
       <c r="GN4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GO4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GP4" s="5" t="inlineStr">
@@ -4899,9 +5187,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="GQ4" s="5" t="inlineStr"/>
-      <c r="GR4" s="5" t="inlineStr"/>
-      <c r="GS4" s="6" t="inlineStr"/>
+      <c r="GQ4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GR4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GS4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="GT4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -4909,12 +5209,12 @@
       </c>
       <c r="GU4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GV4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GW4" s="5" t="inlineStr">
@@ -4927,17 +5227,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="GY4" s="5" t="inlineStr"/>
-      <c r="GZ4" s="6" t="inlineStr"/>
-      <c r="HA4" s="6" t="inlineStr"/>
+      <c r="GY4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GZ4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="HA4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="HB4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HC4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HD4" s="5" t="inlineStr">
@@ -4955,12 +5267,24 @@
           <t>M</t>
         </is>
       </c>
-      <c r="HG4" s="6" t="inlineStr"/>
-      <c r="HH4" s="6" t="inlineStr"/>
-      <c r="HI4" s="5" t="inlineStr"/>
+      <c r="HG4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="HH4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="HI4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="HJ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HK4" s="5" t="inlineStr">
@@ -4983,9 +5307,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="HO4" s="6" t="inlineStr"/>
-      <c r="HP4" s="5" t="inlineStr"/>
-      <c r="HQ4" s="5" t="inlineStr"/>
+      <c r="HO4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="HP4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HQ4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="HR4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -5011,9 +5347,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="HW4" s="5" t="inlineStr"/>
-      <c r="HX4" s="5" t="inlineStr"/>
-      <c r="HY4" s="5" t="inlineStr"/>
+      <c r="HW4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HX4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HY4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="HZ4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -5036,12 +5384,24 @@
       </c>
       <c r="ID4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="IE4" s="5" t="inlineStr"/>
-      <c r="IF4" s="5" t="inlineStr"/>
-      <c r="IG4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IE4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IF4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="IG4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="IH4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -5059,17 +5419,29 @@
       </c>
       <c r="IK4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IL4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="IM4" s="5" t="inlineStr"/>
-      <c r="IN4" s="5" t="inlineStr"/>
-      <c r="IO4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IM4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="IN4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="IO4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="IP4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -5082,12 +5454,12 @@
       </c>
       <c r="IR4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IS4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IT4" s="5" t="inlineStr">
@@ -5095,9 +5467,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="IU4" s="5" t="inlineStr"/>
-      <c r="IV4" s="5" t="inlineStr"/>
-      <c r="IW4" s="6" t="inlineStr"/>
+      <c r="IU4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="IV4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="IW4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="IX4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -5105,12 +5489,12 @@
       </c>
       <c r="IY4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IZ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JA4" s="5" t="inlineStr">
@@ -5123,17 +5507,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="JC4" s="5" t="inlineStr"/>
-      <c r="JD4" s="6" t="inlineStr"/>
-      <c r="JE4" s="6" t="inlineStr"/>
+      <c r="JC4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="JD4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="JE4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="JF4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JG4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JH4" s="5" t="inlineStr">
@@ -5151,12 +5547,24 @@
           <t>M</t>
         </is>
       </c>
-      <c r="JK4" s="6" t="inlineStr"/>
-      <c r="JL4" s="6" t="inlineStr"/>
-      <c r="JM4" s="5" t="inlineStr"/>
+      <c r="JK4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="JL4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="JM4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="JN4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JO4" s="5" t="inlineStr">
@@ -5179,9 +5587,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="JS4" s="6" t="inlineStr"/>
-      <c r="JT4" s="5" t="inlineStr"/>
-      <c r="JU4" s="5" t="inlineStr"/>
+      <c r="JS4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="JT4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JU4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="JV4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -5207,9 +5627,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="KA4" s="5" t="inlineStr"/>
-      <c r="KB4" s="5" t="inlineStr"/>
-      <c r="KC4" s="5" t="inlineStr"/>
+      <c r="KA4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KB4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KC4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="KD4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -5232,12 +5664,24 @@
       </c>
       <c r="KH4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="KI4" s="5" t="inlineStr"/>
-      <c r="KJ4" s="5" t="inlineStr"/>
-      <c r="KK4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KI4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KJ4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="KK4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="KL4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -5255,17 +5699,29 @@
       </c>
       <c r="KO4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KP4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="KQ4" s="5" t="inlineStr"/>
-      <c r="KR4" s="5" t="inlineStr"/>
-      <c r="KS4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KQ4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="KR4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="KS4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="KT4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -5278,12 +5734,12 @@
       </c>
       <c r="KV4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KW4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KX4" s="5" t="inlineStr">
@@ -5291,9 +5747,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="KY4" s="5" t="inlineStr"/>
-      <c r="KZ4" s="5" t="inlineStr"/>
-      <c r="LA4" s="6" t="inlineStr"/>
+      <c r="KY4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="KZ4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="LA4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="LB4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -5301,12 +5769,12 @@
       </c>
       <c r="LC4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LD4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LE4" s="5" t="inlineStr">
@@ -5319,17 +5787,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="LG4" s="5" t="inlineStr"/>
-      <c r="LH4" s="6" t="inlineStr"/>
-      <c r="LI4" s="6" t="inlineStr"/>
+      <c r="LG4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="LH4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="LI4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="LJ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LK4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LL4" s="5" t="inlineStr">
@@ -5347,12 +5827,24 @@
           <t>M</t>
         </is>
       </c>
-      <c r="LO4" s="6" t="inlineStr"/>
-      <c r="LP4" s="6" t="inlineStr"/>
-      <c r="LQ4" s="5" t="inlineStr"/>
+      <c r="LO4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="LP4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="LQ4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="LR4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LS4" s="5" t="inlineStr">
@@ -5375,9 +5867,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="LW4" s="6" t="inlineStr"/>
-      <c r="LX4" s="5" t="inlineStr"/>
-      <c r="LY4" s="5" t="inlineStr"/>
+      <c r="LW4" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="LX4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LY4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="LZ4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -5403,9 +5907,21 @@
           <t>M</t>
         </is>
       </c>
-      <c r="ME4" s="5" t="inlineStr"/>
-      <c r="MF4" s="5" t="inlineStr"/>
-      <c r="MG4" s="5" t="inlineStr"/>
+      <c r="ME4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MF4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MG4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="MH4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -5428,12 +5944,24 @@
       </c>
       <c r="ML4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="MM4" s="5" t="inlineStr"/>
-      <c r="MN4" s="5" t="inlineStr"/>
-      <c r="MO4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MM4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MN4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="MO4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="MP4" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -5451,17 +5979,29 @@
       </c>
       <c r="MS4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MT4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="MU4" s="5" t="inlineStr"/>
-      <c r="MV4" s="5" t="inlineStr"/>
-      <c r="MW4" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MU4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="MV4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="MW4" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="MX4" s="6" t="inlineStr">
         <is>
           <t>M</t>
@@ -5474,12 +6014,12 @@
       </c>
       <c r="MZ4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="NA4" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="NB4" s="5" t="inlineStr">
@@ -5519,9 +6059,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -5544,12 +6096,24 @@
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -5567,17 +6131,29 @@
       </c>
       <c r="U5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="inlineStr"/>
-      <c r="X5" s="5" t="inlineStr"/>
-      <c r="Y5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="Z5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -5590,12 +6166,12 @@
       </c>
       <c r="AB5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD5" s="5" t="inlineStr">
@@ -5603,9 +6179,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AE5" s="5" t="inlineStr"/>
-      <c r="AF5" s="5" t="inlineStr"/>
-      <c r="AG5" s="6" t="inlineStr"/>
+      <c r="AE5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="AH5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -5613,12 +6201,12 @@
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -5631,17 +6219,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AM5" s="5" t="inlineStr"/>
-      <c r="AN5" s="6" t="inlineStr"/>
-      <c r="AO5" s="6" t="inlineStr"/>
+      <c r="AM5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="AP5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AQ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AR5" s="5" t="inlineStr">
@@ -5659,12 +6259,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AU5" s="6" t="inlineStr"/>
-      <c r="AV5" s="6" t="inlineStr"/>
-      <c r="AW5" s="5" t="inlineStr"/>
+      <c r="AU5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AX5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AY5" s="5" t="inlineStr">
@@ -5687,9 +6299,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BC5" s="6" t="inlineStr"/>
-      <c r="BD5" s="5" t="inlineStr"/>
-      <c r="BE5" s="5" t="inlineStr"/>
+      <c r="BC5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="BF5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -5715,9 +6339,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BK5" s="5" t="inlineStr"/>
-      <c r="BL5" s="5" t="inlineStr"/>
-      <c r="BM5" s="5" t="inlineStr"/>
+      <c r="BK5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BL5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BM5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="BN5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -5740,12 +6376,24 @@
       </c>
       <c r="BR5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS5" s="5" t="inlineStr"/>
-      <c r="BT5" s="5" t="inlineStr"/>
-      <c r="BU5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BS5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BT5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="BV5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -5763,17 +6411,29 @@
       </c>
       <c r="BY5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="BZ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA5" s="5" t="inlineStr"/>
-      <c r="CB5" s="5" t="inlineStr"/>
-      <c r="CC5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CA5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="CD5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -5786,12 +6446,12 @@
       </c>
       <c r="CF5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CG5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CH5" s="5" t="inlineStr">
@@ -5799,9 +6459,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CI5" s="5" t="inlineStr"/>
-      <c r="CJ5" s="5" t="inlineStr"/>
-      <c r="CK5" s="6" t="inlineStr"/>
+      <c r="CI5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="CL5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -5809,12 +6481,12 @@
       </c>
       <c r="CM5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CN5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CO5" s="5" t="inlineStr">
@@ -5827,17 +6499,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CQ5" s="5" t="inlineStr"/>
-      <c r="CR5" s="6" t="inlineStr"/>
-      <c r="CS5" s="6" t="inlineStr"/>
+      <c r="CQ5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CR5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CS5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="CT5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CU5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="CV5" s="5" t="inlineStr">
@@ -5855,12 +6539,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CY5" s="6" t="inlineStr"/>
-      <c r="CZ5" s="6" t="inlineStr"/>
-      <c r="DA5" s="5" t="inlineStr"/>
+      <c r="CY5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CZ5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DA5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="DB5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="DC5" s="5" t="inlineStr">
@@ -5883,9 +6579,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="DG5" s="6" t="inlineStr"/>
-      <c r="DH5" s="5" t="inlineStr"/>
-      <c r="DI5" s="5" t="inlineStr"/>
+      <c r="DG5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DH5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="DJ5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -5911,9 +6619,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="DO5" s="5" t="inlineStr"/>
-      <c r="DP5" s="5" t="inlineStr"/>
-      <c r="DQ5" s="5" t="inlineStr"/>
+      <c r="DO5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="DR5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -5936,12 +6656,24 @@
       </c>
       <c r="DV5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DW5" s="5" t="inlineStr"/>
-      <c r="DX5" s="5" t="inlineStr"/>
-      <c r="DY5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DY5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="DZ5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -5959,17 +6691,29 @@
       </c>
       <c r="EC5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ED5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="EE5" s="5" t="inlineStr"/>
-      <c r="EF5" s="5" t="inlineStr"/>
-      <c r="EG5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EF5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EG5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="EH5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -5982,12 +6726,12 @@
       </c>
       <c r="EJ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EK5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EL5" s="5" t="inlineStr">
@@ -5995,9 +6739,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="EM5" s="5" t="inlineStr"/>
-      <c r="EN5" s="5" t="inlineStr"/>
-      <c r="EO5" s="6" t="inlineStr"/>
+      <c r="EM5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EN5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EO5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="EP5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -6005,12 +6761,12 @@
       </c>
       <c r="EQ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ER5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="ES5" s="5" t="inlineStr">
@@ -6023,17 +6779,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="EU5" s="5" t="inlineStr"/>
-      <c r="EV5" s="6" t="inlineStr"/>
-      <c r="EW5" s="6" t="inlineStr"/>
+      <c r="EU5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EV5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EW5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="EX5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EY5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="EZ5" s="5" t="inlineStr">
@@ -6051,12 +6819,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="FC5" s="6" t="inlineStr"/>
-      <c r="FD5" s="6" t="inlineStr"/>
-      <c r="FE5" s="5" t="inlineStr"/>
+      <c r="FC5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="FD5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="FE5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="FF5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="FG5" s="5" t="inlineStr">
@@ -6079,9 +6859,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="FK5" s="6" t="inlineStr"/>
-      <c r="FL5" s="5" t="inlineStr"/>
-      <c r="FM5" s="5" t="inlineStr"/>
+      <c r="FK5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="FL5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="FN5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6107,9 +6899,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="FS5" s="5" t="inlineStr"/>
-      <c r="FT5" s="5" t="inlineStr"/>
-      <c r="FU5" s="5" t="inlineStr"/>
+      <c r="FS5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FT5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FU5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="FV5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6132,12 +6936,24 @@
       </c>
       <c r="FZ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="GA5" s="5" t="inlineStr"/>
-      <c r="GB5" s="5" t="inlineStr"/>
-      <c r="GC5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GA5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GB5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="GC5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="GD5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6155,17 +6971,29 @@
       </c>
       <c r="GG5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GH5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="GI5" s="5" t="inlineStr"/>
-      <c r="GJ5" s="5" t="inlineStr"/>
-      <c r="GK5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GI5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="GJ5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="GK5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="GL5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -6178,12 +7006,12 @@
       </c>
       <c r="GN5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GO5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GP5" s="5" t="inlineStr">
@@ -6191,9 +7019,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="GQ5" s="5" t="inlineStr"/>
-      <c r="GR5" s="5" t="inlineStr"/>
-      <c r="GS5" s="6" t="inlineStr"/>
+      <c r="GQ5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="GR5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="GS5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="GT5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -6201,12 +7041,12 @@
       </c>
       <c r="GU5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GV5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="GW5" s="5" t="inlineStr">
@@ -6219,17 +7059,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="GY5" s="5" t="inlineStr"/>
-      <c r="GZ5" s="6" t="inlineStr"/>
-      <c r="HA5" s="6" t="inlineStr"/>
+      <c r="GY5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="GZ5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="HA5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="HB5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HC5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HD5" s="5" t="inlineStr">
@@ -6247,12 +7099,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="HG5" s="6" t="inlineStr"/>
-      <c r="HH5" s="6" t="inlineStr"/>
-      <c r="HI5" s="5" t="inlineStr"/>
+      <c r="HG5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="HH5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="HI5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="HJ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="HK5" s="5" t="inlineStr">
@@ -6275,9 +7139,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="HO5" s="6" t="inlineStr"/>
-      <c r="HP5" s="5" t="inlineStr"/>
-      <c r="HQ5" s="5" t="inlineStr"/>
+      <c r="HO5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="HP5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HQ5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="HR5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6303,9 +7179,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="HW5" s="5" t="inlineStr"/>
-      <c r="HX5" s="5" t="inlineStr"/>
-      <c r="HY5" s="5" t="inlineStr"/>
+      <c r="HW5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HX5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HY5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="HZ5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6328,12 +7216,24 @@
       </c>
       <c r="ID5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="IE5" s="5" t="inlineStr"/>
-      <c r="IF5" s="5" t="inlineStr"/>
-      <c r="IG5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IE5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IF5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="IG5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="IH5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6351,17 +7251,29 @@
       </c>
       <c r="IK5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IL5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="IM5" s="5" t="inlineStr"/>
-      <c r="IN5" s="5" t="inlineStr"/>
-      <c r="IO5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="IM5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="IN5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="IO5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="IP5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -6374,12 +7286,12 @@
       </c>
       <c r="IR5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IS5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IT5" s="5" t="inlineStr">
@@ -6387,9 +7299,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="IU5" s="5" t="inlineStr"/>
-      <c r="IV5" s="5" t="inlineStr"/>
-      <c r="IW5" s="6" t="inlineStr"/>
+      <c r="IU5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="IV5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="IW5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="IX5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -6397,12 +7321,12 @@
       </c>
       <c r="IY5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="IZ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JA5" s="5" t="inlineStr">
@@ -6415,17 +7339,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="JC5" s="5" t="inlineStr"/>
-      <c r="JD5" s="6" t="inlineStr"/>
-      <c r="JE5" s="6" t="inlineStr"/>
+      <c r="JC5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="JD5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="JE5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="JF5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JG5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JH5" s="5" t="inlineStr">
@@ -6443,12 +7379,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="JK5" s="6" t="inlineStr"/>
-      <c r="JL5" s="6" t="inlineStr"/>
-      <c r="JM5" s="5" t="inlineStr"/>
+      <c r="JK5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="JL5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="JM5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="JN5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="JO5" s="5" t="inlineStr">
@@ -6471,9 +7419,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="JS5" s="6" t="inlineStr"/>
-      <c r="JT5" s="5" t="inlineStr"/>
-      <c r="JU5" s="5" t="inlineStr"/>
+      <c r="JS5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="JT5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JU5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="JV5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6499,9 +7459,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="KA5" s="5" t="inlineStr"/>
-      <c r="KB5" s="5" t="inlineStr"/>
-      <c r="KC5" s="5" t="inlineStr"/>
+      <c r="KA5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KB5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KC5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="KD5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6524,12 +7496,24 @@
       </c>
       <c r="KH5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="KI5" s="5" t="inlineStr"/>
-      <c r="KJ5" s="5" t="inlineStr"/>
-      <c r="KK5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KI5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KJ5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="KK5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="KL5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6547,17 +7531,29 @@
       </c>
       <c r="KO5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KP5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="KQ5" s="5" t="inlineStr"/>
-      <c r="KR5" s="5" t="inlineStr"/>
-      <c r="KS5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KQ5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="KR5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="KS5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="KT5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -6570,12 +7566,12 @@
       </c>
       <c r="KV5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KW5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="KX5" s="5" t="inlineStr">
@@ -6583,9 +7579,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="KY5" s="5" t="inlineStr"/>
-      <c r="KZ5" s="5" t="inlineStr"/>
-      <c r="LA5" s="6" t="inlineStr"/>
+      <c r="KY5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="KZ5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LA5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="LB5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -6593,12 +7601,12 @@
       </c>
       <c r="LC5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LD5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LE5" s="5" t="inlineStr">
@@ -6611,17 +7619,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="LG5" s="5" t="inlineStr"/>
-      <c r="LH5" s="6" t="inlineStr"/>
-      <c r="LI5" s="6" t="inlineStr"/>
+      <c r="LG5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LH5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LI5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="LJ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LK5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LL5" s="5" t="inlineStr">
@@ -6639,12 +7659,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="LO5" s="6" t="inlineStr"/>
-      <c r="LP5" s="6" t="inlineStr"/>
-      <c r="LQ5" s="5" t="inlineStr"/>
+      <c r="LO5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LP5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LQ5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="LR5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="LS5" s="5" t="inlineStr">
@@ -6667,9 +7699,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="LW5" s="6" t="inlineStr"/>
-      <c r="LX5" s="5" t="inlineStr"/>
-      <c r="LY5" s="5" t="inlineStr"/>
+      <c r="LW5" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LX5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LY5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="LZ5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6695,9 +7739,21 @@
           <t>T</t>
         </is>
       </c>
-      <c r="ME5" s="5" t="inlineStr"/>
-      <c r="MF5" s="5" t="inlineStr"/>
-      <c r="MG5" s="5" t="inlineStr"/>
+      <c r="ME5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MF5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MG5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="MH5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6720,12 +7776,24 @@
       </c>
       <c r="ML5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="MM5" s="5" t="inlineStr"/>
-      <c r="MN5" s="5" t="inlineStr"/>
-      <c r="MO5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MM5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MN5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="MO5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="MP5" s="5" t="inlineStr">
         <is>
           <t>T</t>
@@ -6743,17 +7811,29 @@
       </c>
       <c r="MS5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="MT5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="MU5" s="5" t="inlineStr"/>
-      <c r="MV5" s="5" t="inlineStr"/>
-      <c r="MW5" s="5" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MU5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="MV5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="MW5" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="MX5" s="6" t="inlineStr">
         <is>
           <t>T</t>
@@ -6766,12 +7846,12 @@
       </c>
       <c r="MZ5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="NA5" s="5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="NB5" s="5" t="inlineStr">
@@ -6801,121 +7881,101 @@
           <t>M</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="6" t="inlineStr"/>
       <c r="M6" s="6" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="O6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
       <c r="R6" s="5" t="inlineStr"/>
       <c r="S6" s="6" t="inlineStr"/>
       <c r="T6" s="6" t="inlineStr"/>
-      <c r="U6" s="5" t="inlineStr"/>
-      <c r="V6" s="5" t="inlineStr"/>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr"/>
+      <c r="X6" s="5" t="inlineStr"/>
+      <c r="Y6" s="5" t="inlineStr"/>
       <c r="Z6" s="6" t="inlineStr"/>
       <c r="AA6" s="6" t="inlineStr"/>
-      <c r="AB6" s="5" t="inlineStr"/>
-      <c r="AC6" s="5" t="inlineStr"/>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AD6" s="5" t="inlineStr"/>
-      <c r="AE6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AG6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="AE6" s="5" t="inlineStr"/>
+      <c r="AF6" s="5" t="inlineStr"/>
+      <c r="AG6" s="6" t="inlineStr"/>
       <c r="AH6" s="6" t="inlineStr"/>
-      <c r="AI6" s="5" t="inlineStr"/>
-      <c r="AJ6" s="5" t="inlineStr"/>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AK6" s="5" t="inlineStr"/>
       <c r="AL6" s="5" t="inlineStr"/>
-      <c r="AM6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AN6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AO6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AP6" s="5" t="inlineStr"/>
-      <c r="AQ6" s="5" t="inlineStr"/>
+      <c r="AM6" s="5" t="inlineStr"/>
+      <c r="AN6" s="6" t="inlineStr"/>
+      <c r="AO6" s="6" t="inlineStr"/>
+      <c r="AP6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AQ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AR6" s="5" t="inlineStr"/>
       <c r="AS6" s="5" t="inlineStr"/>
       <c r="AT6" s="5" t="inlineStr"/>
-      <c r="AU6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AV6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="AU6" s="6" t="inlineStr"/>
+      <c r="AV6" s="6" t="inlineStr"/>
       <c r="AW6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="AX6" s="5" t="inlineStr"/>
+      <c r="AX6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="AY6" s="5" t="inlineStr"/>
       <c r="AZ6" s="5" t="inlineStr"/>
       <c r="BA6" s="5" t="inlineStr"/>
       <c r="BB6" s="6" t="inlineStr"/>
-      <c r="BC6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="BC6" s="6" t="inlineStr"/>
       <c r="BD6" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -6941,121 +8001,101 @@
           <t>M</t>
         </is>
       </c>
-      <c r="BM6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="BM6" s="5" t="inlineStr"/>
       <c r="BN6" s="5" t="inlineStr"/>
       <c r="BO6" s="5" t="inlineStr"/>
       <c r="BP6" s="6" t="inlineStr"/>
       <c r="BQ6" s="6" t="inlineStr"/>
-      <c r="BR6" s="5" t="inlineStr"/>
+      <c r="BR6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="BS6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="BT6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="BU6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="BT6" s="5" t="inlineStr"/>
+      <c r="BU6" s="5" t="inlineStr"/>
       <c r="BV6" s="5" t="inlineStr"/>
       <c r="BW6" s="6" t="inlineStr"/>
       <c r="BX6" s="6" t="inlineStr"/>
-      <c r="BY6" s="5" t="inlineStr"/>
-      <c r="BZ6" s="5" t="inlineStr"/>
-      <c r="CA6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CB6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CC6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="BY6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="BZ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CA6" s="5" t="inlineStr"/>
+      <c r="CB6" s="5" t="inlineStr"/>
+      <c r="CC6" s="5" t="inlineStr"/>
       <c r="CD6" s="6" t="inlineStr"/>
       <c r="CE6" s="6" t="inlineStr"/>
-      <c r="CF6" s="5" t="inlineStr"/>
-      <c r="CG6" s="5" t="inlineStr"/>
+      <c r="CF6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CG6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="CH6" s="5" t="inlineStr"/>
-      <c r="CI6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CJ6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CK6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="CI6" s="5" t="inlineStr"/>
+      <c r="CJ6" s="5" t="inlineStr"/>
+      <c r="CK6" s="6" t="inlineStr"/>
       <c r="CL6" s="6" t="inlineStr"/>
-      <c r="CM6" s="5" t="inlineStr"/>
-      <c r="CN6" s="5" t="inlineStr"/>
+      <c r="CM6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CN6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="CO6" s="5" t="inlineStr"/>
       <c r="CP6" s="5" t="inlineStr"/>
-      <c r="CQ6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CR6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CS6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CT6" s="5" t="inlineStr"/>
-      <c r="CU6" s="5" t="inlineStr"/>
+      <c r="CQ6" s="5" t="inlineStr"/>
+      <c r="CR6" s="6" t="inlineStr"/>
+      <c r="CS6" s="6" t="inlineStr"/>
+      <c r="CT6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CU6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="CV6" s="5" t="inlineStr"/>
       <c r="CW6" s="5" t="inlineStr"/>
       <c r="CX6" s="5" t="inlineStr"/>
-      <c r="CY6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CZ6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="CY6" s="6" t="inlineStr"/>
+      <c r="CZ6" s="6" t="inlineStr"/>
       <c r="DA6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DB6" s="5" t="inlineStr"/>
+      <c r="DB6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="DC6" s="5" t="inlineStr"/>
       <c r="DD6" s="5" t="inlineStr"/>
       <c r="DE6" s="5" t="inlineStr"/>
       <c r="DF6" s="6" t="inlineStr"/>
-      <c r="DG6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="DG6" s="6" t="inlineStr"/>
       <c r="DH6" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -7081,121 +8121,101 @@
           <t>M</t>
         </is>
       </c>
-      <c r="DQ6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="DQ6" s="5" t="inlineStr"/>
       <c r="DR6" s="5" t="inlineStr"/>
       <c r="DS6" s="5" t="inlineStr"/>
       <c r="DT6" s="6" t="inlineStr"/>
       <c r="DU6" s="6" t="inlineStr"/>
-      <c r="DV6" s="5" t="inlineStr"/>
+      <c r="DV6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="DW6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DX6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="DY6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="DX6" s="5" t="inlineStr"/>
+      <c r="DY6" s="5" t="inlineStr"/>
       <c r="DZ6" s="5" t="inlineStr"/>
       <c r="EA6" s="6" t="inlineStr"/>
       <c r="EB6" s="6" t="inlineStr"/>
-      <c r="EC6" s="5" t="inlineStr"/>
-      <c r="ED6" s="5" t="inlineStr"/>
-      <c r="EE6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="EF6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="EG6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="EC6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="ED6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EE6" s="5" t="inlineStr"/>
+      <c r="EF6" s="5" t="inlineStr"/>
+      <c r="EG6" s="5" t="inlineStr"/>
       <c r="EH6" s="6" t="inlineStr"/>
       <c r="EI6" s="6" t="inlineStr"/>
-      <c r="EJ6" s="5" t="inlineStr"/>
-      <c r="EK6" s="5" t="inlineStr"/>
+      <c r="EJ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EK6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="EL6" s="5" t="inlineStr"/>
-      <c r="EM6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="EN6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="EO6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="EM6" s="5" t="inlineStr"/>
+      <c r="EN6" s="5" t="inlineStr"/>
+      <c r="EO6" s="6" t="inlineStr"/>
       <c r="EP6" s="6" t="inlineStr"/>
-      <c r="EQ6" s="5" t="inlineStr"/>
-      <c r="ER6" s="5" t="inlineStr"/>
+      <c r="EQ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="ER6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="ES6" s="5" t="inlineStr"/>
       <c r="ET6" s="5" t="inlineStr"/>
-      <c r="EU6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="EV6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="EW6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="EX6" s="5" t="inlineStr"/>
-      <c r="EY6" s="5" t="inlineStr"/>
+      <c r="EU6" s="5" t="inlineStr"/>
+      <c r="EV6" s="6" t="inlineStr"/>
+      <c r="EW6" s="6" t="inlineStr"/>
+      <c r="EX6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EY6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="EZ6" s="5" t="inlineStr"/>
       <c r="FA6" s="5" t="inlineStr"/>
       <c r="FB6" s="5" t="inlineStr"/>
-      <c r="FC6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="FD6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="FC6" s="6" t="inlineStr"/>
+      <c r="FD6" s="6" t="inlineStr"/>
       <c r="FE6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="FF6" s="5" t="inlineStr"/>
+      <c r="FF6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="FG6" s="5" t="inlineStr"/>
       <c r="FH6" s="5" t="inlineStr"/>
       <c r="FI6" s="5" t="inlineStr"/>
       <c r="FJ6" s="6" t="inlineStr"/>
-      <c r="FK6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="FK6" s="6" t="inlineStr"/>
       <c r="FL6" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -7221,121 +8241,101 @@
           <t>M</t>
         </is>
       </c>
-      <c r="FU6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="FU6" s="5" t="inlineStr"/>
       <c r="FV6" s="5" t="inlineStr"/>
       <c r="FW6" s="5" t="inlineStr"/>
       <c r="FX6" s="6" t="inlineStr"/>
       <c r="FY6" s="6" t="inlineStr"/>
-      <c r="FZ6" s="5" t="inlineStr"/>
+      <c r="FZ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="GA6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="GB6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="GC6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="GB6" s="5" t="inlineStr"/>
+      <c r="GC6" s="5" t="inlineStr"/>
       <c r="GD6" s="5" t="inlineStr"/>
       <c r="GE6" s="6" t="inlineStr"/>
       <c r="GF6" s="6" t="inlineStr"/>
-      <c r="GG6" s="5" t="inlineStr"/>
-      <c r="GH6" s="5" t="inlineStr"/>
-      <c r="GI6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="GJ6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="GK6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="GG6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GH6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GI6" s="5" t="inlineStr"/>
+      <c r="GJ6" s="5" t="inlineStr"/>
+      <c r="GK6" s="5" t="inlineStr"/>
       <c r="GL6" s="6" t="inlineStr"/>
       <c r="GM6" s="6" t="inlineStr"/>
-      <c r="GN6" s="5" t="inlineStr"/>
-      <c r="GO6" s="5" t="inlineStr"/>
+      <c r="GN6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GO6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="GP6" s="5" t="inlineStr"/>
-      <c r="GQ6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="GR6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="GS6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="GQ6" s="5" t="inlineStr"/>
+      <c r="GR6" s="5" t="inlineStr"/>
+      <c r="GS6" s="6" t="inlineStr"/>
       <c r="GT6" s="6" t="inlineStr"/>
-      <c r="GU6" s="5" t="inlineStr"/>
-      <c r="GV6" s="5" t="inlineStr"/>
+      <c r="GU6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="GV6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="GW6" s="5" t="inlineStr"/>
       <c r="GX6" s="5" t="inlineStr"/>
-      <c r="GY6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="GZ6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="HA6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="HB6" s="5" t="inlineStr"/>
-      <c r="HC6" s="5" t="inlineStr"/>
+      <c r="GY6" s="5" t="inlineStr"/>
+      <c r="GZ6" s="6" t="inlineStr"/>
+      <c r="HA6" s="6" t="inlineStr"/>
+      <c r="HB6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="HC6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="HD6" s="5" t="inlineStr"/>
       <c r="HE6" s="5" t="inlineStr"/>
       <c r="HF6" s="5" t="inlineStr"/>
-      <c r="HG6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="HH6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="HG6" s="6" t="inlineStr"/>
+      <c r="HH6" s="6" t="inlineStr"/>
       <c r="HI6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="HJ6" s="5" t="inlineStr"/>
+      <c r="HJ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="HK6" s="5" t="inlineStr"/>
       <c r="HL6" s="5" t="inlineStr"/>
       <c r="HM6" s="5" t="inlineStr"/>
       <c r="HN6" s="6" t="inlineStr"/>
-      <c r="HO6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="HO6" s="6" t="inlineStr"/>
       <c r="HP6" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -7361,121 +8361,101 @@
           <t>M</t>
         </is>
       </c>
-      <c r="HY6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="HY6" s="5" t="inlineStr"/>
       <c r="HZ6" s="5" t="inlineStr"/>
       <c r="IA6" s="5" t="inlineStr"/>
       <c r="IB6" s="6" t="inlineStr"/>
       <c r="IC6" s="6" t="inlineStr"/>
-      <c r="ID6" s="5" t="inlineStr"/>
+      <c r="ID6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="IE6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="IF6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="IG6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="IF6" s="5" t="inlineStr"/>
+      <c r="IG6" s="5" t="inlineStr"/>
       <c r="IH6" s="5" t="inlineStr"/>
       <c r="II6" s="6" t="inlineStr"/>
       <c r="IJ6" s="6" t="inlineStr"/>
-      <c r="IK6" s="5" t="inlineStr"/>
-      <c r="IL6" s="5" t="inlineStr"/>
-      <c r="IM6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="IN6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="IO6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="IK6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="IL6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="IM6" s="5" t="inlineStr"/>
+      <c r="IN6" s="5" t="inlineStr"/>
+      <c r="IO6" s="5" t="inlineStr"/>
       <c r="IP6" s="6" t="inlineStr"/>
       <c r="IQ6" s="6" t="inlineStr"/>
-      <c r="IR6" s="5" t="inlineStr"/>
-      <c r="IS6" s="5" t="inlineStr"/>
+      <c r="IR6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="IS6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="IT6" s="5" t="inlineStr"/>
-      <c r="IU6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="IV6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="IW6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="IU6" s="5" t="inlineStr"/>
+      <c r="IV6" s="5" t="inlineStr"/>
+      <c r="IW6" s="6" t="inlineStr"/>
       <c r="IX6" s="6" t="inlineStr"/>
-      <c r="IY6" s="5" t="inlineStr"/>
-      <c r="IZ6" s="5" t="inlineStr"/>
+      <c r="IY6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="IZ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="JA6" s="5" t="inlineStr"/>
       <c r="JB6" s="5" t="inlineStr"/>
-      <c r="JC6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="JD6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="JE6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="JF6" s="5" t="inlineStr"/>
-      <c r="JG6" s="5" t="inlineStr"/>
+      <c r="JC6" s="5" t="inlineStr"/>
+      <c r="JD6" s="6" t="inlineStr"/>
+      <c r="JE6" s="6" t="inlineStr"/>
+      <c r="JF6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="JG6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="JH6" s="5" t="inlineStr"/>
       <c r="JI6" s="5" t="inlineStr"/>
       <c r="JJ6" s="5" t="inlineStr"/>
-      <c r="JK6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="JL6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="JK6" s="6" t="inlineStr"/>
+      <c r="JL6" s="6" t="inlineStr"/>
       <c r="JM6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="JN6" s="5" t="inlineStr"/>
+      <c r="JN6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="JO6" s="5" t="inlineStr"/>
       <c r="JP6" s="5" t="inlineStr"/>
       <c r="JQ6" s="5" t="inlineStr"/>
       <c r="JR6" s="6" t="inlineStr"/>
-      <c r="JS6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="JS6" s="6" t="inlineStr"/>
       <c r="JT6" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -7501,121 +8481,101 @@
           <t>M</t>
         </is>
       </c>
-      <c r="KC6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="KC6" s="5" t="inlineStr"/>
       <c r="KD6" s="5" t="inlineStr"/>
       <c r="KE6" s="5" t="inlineStr"/>
       <c r="KF6" s="6" t="inlineStr"/>
       <c r="KG6" s="6" t="inlineStr"/>
-      <c r="KH6" s="5" t="inlineStr"/>
+      <c r="KH6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="KI6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="KJ6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="KK6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="KJ6" s="5" t="inlineStr"/>
+      <c r="KK6" s="5" t="inlineStr"/>
       <c r="KL6" s="5" t="inlineStr"/>
       <c r="KM6" s="6" t="inlineStr"/>
       <c r="KN6" s="6" t="inlineStr"/>
-      <c r="KO6" s="5" t="inlineStr"/>
-      <c r="KP6" s="5" t="inlineStr"/>
-      <c r="KQ6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="KR6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="KS6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="KO6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="KP6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="KQ6" s="5" t="inlineStr"/>
+      <c r="KR6" s="5" t="inlineStr"/>
+      <c r="KS6" s="5" t="inlineStr"/>
       <c r="KT6" s="6" t="inlineStr"/>
       <c r="KU6" s="6" t="inlineStr"/>
-      <c r="KV6" s="5" t="inlineStr"/>
-      <c r="KW6" s="5" t="inlineStr"/>
+      <c r="KV6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="KW6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="KX6" s="5" t="inlineStr"/>
-      <c r="KY6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="KZ6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="LA6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="KY6" s="5" t="inlineStr"/>
+      <c r="KZ6" s="5" t="inlineStr"/>
+      <c r="LA6" s="6" t="inlineStr"/>
       <c r="LB6" s="6" t="inlineStr"/>
-      <c r="LC6" s="5" t="inlineStr"/>
-      <c r="LD6" s="5" t="inlineStr"/>
+      <c r="LC6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="LD6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="LE6" s="5" t="inlineStr"/>
       <c r="LF6" s="5" t="inlineStr"/>
-      <c r="LG6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="LH6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="LI6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="LJ6" s="5" t="inlineStr"/>
-      <c r="LK6" s="5" t="inlineStr"/>
+      <c r="LG6" s="5" t="inlineStr"/>
+      <c r="LH6" s="6" t="inlineStr"/>
+      <c r="LI6" s="6" t="inlineStr"/>
+      <c r="LJ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="LK6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="LL6" s="5" t="inlineStr"/>
       <c r="LM6" s="5" t="inlineStr"/>
       <c r="LN6" s="5" t="inlineStr"/>
-      <c r="LO6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="LP6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="LO6" s="6" t="inlineStr"/>
+      <c r="LP6" s="6" t="inlineStr"/>
       <c r="LQ6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="LR6" s="5" t="inlineStr"/>
+      <c r="LR6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="LS6" s="5" t="inlineStr"/>
       <c r="LT6" s="5" t="inlineStr"/>
       <c r="LU6" s="5" t="inlineStr"/>
       <c r="LV6" s="6" t="inlineStr"/>
-      <c r="LW6" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="LW6" s="6" t="inlineStr"/>
       <c r="LX6" s="5" t="inlineStr">
         <is>
           <t>M</t>
@@ -7641,55 +8601,51 @@
           <t>M</t>
         </is>
       </c>
-      <c r="MG6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="MG6" s="5" t="inlineStr"/>
       <c r="MH6" s="5" t="inlineStr"/>
       <c r="MI6" s="5" t="inlineStr"/>
       <c r="MJ6" s="6" t="inlineStr"/>
       <c r="MK6" s="6" t="inlineStr"/>
-      <c r="ML6" s="5" t="inlineStr"/>
+      <c r="ML6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="MM6" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="MN6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="MO6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="MN6" s="5" t="inlineStr"/>
+      <c r="MO6" s="5" t="inlineStr"/>
       <c r="MP6" s="5" t="inlineStr"/>
       <c r="MQ6" s="6" t="inlineStr"/>
       <c r="MR6" s="6" t="inlineStr"/>
-      <c r="MS6" s="5" t="inlineStr"/>
-      <c r="MT6" s="5" t="inlineStr"/>
-      <c r="MU6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="MV6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="MW6" s="5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="MS6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="MT6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="MU6" s="5" t="inlineStr"/>
+      <c r="MV6" s="5" t="inlineStr"/>
+      <c r="MW6" s="5" t="inlineStr"/>
       <c r="MX6" s="6" t="inlineStr"/>
       <c r="MY6" s="6" t="inlineStr"/>
-      <c r="MZ6" s="5" t="inlineStr"/>
-      <c r="NA6" s="5" t="inlineStr"/>
+      <c r="MZ6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="NA6" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="NB6" s="5" t="inlineStr"/>
     </row>
   </sheetData>
